--- a/Excel reports/mrk_windowed_dataset.xlsx
+++ b/Excel reports/mrk_windowed_dataset.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2826"/>
+  <dimension ref="A1:J2876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91098,16 +91098,1620 @@
         <v>86.23000335693359</v>
       </c>
       <c r="G2826" t="n">
-        <v>89.9197867991539</v>
+        <v>77.56215221316754</v>
       </c>
       <c r="H2826" t="n">
-        <v>89.663663036126</v>
+        <v>77.90298529819698</v>
       </c>
       <c r="I2826" t="n">
-        <v>87.54987745345801</v>
+        <v>77.93080223674818</v>
       </c>
       <c r="J2826" t="n">
         <v>113</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2827" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C2827" t="n">
+        <v>75.83000183105469</v>
+      </c>
+      <c r="D2827" t="n">
+        <v>77.86000061035156</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>74.77999877929688</v>
+      </c>
+      <c r="F2827" t="n">
+        <v>77.83000183105469</v>
+      </c>
+      <c r="G2827" t="n">
+        <v>77.56215221316754</v>
+      </c>
+      <c r="H2827" t="n">
+        <v>77.90298529819698</v>
+      </c>
+      <c r="I2827" t="n">
+        <v>77.93080223674818</v>
+      </c>
+      <c r="J2827" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2828" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C2828" t="n">
+        <v>77.01000213623047</v>
+      </c>
+      <c r="D2828" t="n">
+        <v>79.62999725341797</v>
+      </c>
+      <c r="E2828" t="n">
+        <v>76.08000183105469</v>
+      </c>
+      <c r="F2828" t="n">
+        <v>78.26000213623047</v>
+      </c>
+      <c r="G2828" t="n">
+        <v>77.76153790547123</v>
+      </c>
+      <c r="H2828" t="n">
+        <v>77.95791096558675</v>
+      </c>
+      <c r="I2828" t="n">
+        <v>77.95713822870677</v>
+      </c>
+      <c r="J2828" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2829" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C2829" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="D2829" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="E2829" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="F2829" t="n">
+        <v>79.11000061035156</v>
+      </c>
+      <c r="G2829" t="n">
+        <v>78.14681296400846</v>
+      </c>
+      <c r="H2829" t="n">
+        <v>78.13515552631979</v>
+      </c>
+      <c r="I2829" t="n">
+        <v>78.04936721923835</v>
+      </c>
+      <c r="J2829" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B2830" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C2830" t="n">
+        <v>79.66999816894531</v>
+      </c>
+      <c r="D2830" t="n">
+        <v>81.37999725341797</v>
+      </c>
+      <c r="E2830" t="n">
+        <v>78.76999664306641</v>
+      </c>
+      <c r="F2830" t="n">
+        <v>81.33999633789062</v>
+      </c>
+      <c r="G2830" t="n">
+        <v>79.05915107083193</v>
+      </c>
+      <c r="H2830" t="n">
+        <v>78.62820795886915</v>
+      </c>
+      <c r="I2830" t="n">
+        <v>78.31261754873053</v>
+      </c>
+      <c r="J2830" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2831" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C2831" t="n">
+        <v>81.37000274658203</v>
+      </c>
+      <c r="D2831" t="n">
+        <v>83.58000183105469</v>
+      </c>
+      <c r="E2831" t="n">
+        <v>80.73000335693359</v>
+      </c>
+      <c r="F2831" t="n">
+        <v>83.51999664306641</v>
+      </c>
+      <c r="G2831" t="n">
+        <v>80.33367837718464</v>
+      </c>
+      <c r="H2831" t="n">
+        <v>79.38079083336103</v>
+      </c>
+      <c r="I2831" t="n">
+        <v>78.7292078762774</v>
+      </c>
+      <c r="J2831" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B2832" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C2832" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D2832" t="n">
+        <v>87.83999633789062</v>
+      </c>
+      <c r="E2832" t="n">
+        <v>82.73000335693359</v>
+      </c>
+      <c r="F2832" t="n">
+        <v>87.68000030517578</v>
+      </c>
+      <c r="G2832" t="n">
+        <v>82.43262749946783</v>
+      </c>
+      <c r="H2832" t="n">
+        <v>80.6575922905633</v>
+      </c>
+      <c r="I2832" t="n">
+        <v>79.44527127058927</v>
+      </c>
+      <c r="J2832" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2833" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C2833" t="n">
+        <v>88.31999969482422</v>
+      </c>
+      <c r="D2833" t="n">
+        <v>89.48000335693359</v>
+      </c>
+      <c r="E2833" t="n">
+        <v>84.83000183105469</v>
+      </c>
+      <c r="F2833" t="n">
+        <v>86.91000366210938</v>
+      </c>
+      <c r="G2833" t="n">
+        <v>83.71187783165112</v>
+      </c>
+      <c r="H2833" t="n">
+        <v>81.61950173233961</v>
+      </c>
+      <c r="I2833" t="n">
+        <v>80.04244986191088</v>
+      </c>
+      <c r="J2833" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B2834" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C2834" t="n">
+        <v>86.41999816894531</v>
+      </c>
+      <c r="D2834" t="n">
+        <v>87.44999694824219</v>
+      </c>
+      <c r="E2834" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F2834" t="n">
+        <v>84.58999633789062</v>
+      </c>
+      <c r="G2834" t="n">
+        <v>83.96276883343384</v>
+      </c>
+      <c r="H2834" t="n">
+        <v>82.07650090242439</v>
+      </c>
+      <c r="I2834" t="n">
+        <v>80.40625357998925</v>
+      </c>
+      <c r="J2834" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B2835" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C2835" t="n">
+        <v>84.58999633789062</v>
+      </c>
+      <c r="D2835" t="n">
+        <v>90.01000213623047</v>
+      </c>
+      <c r="E2835" t="n">
+        <v>83.52999877929688</v>
+      </c>
+      <c r="F2835" t="n">
+        <v>88.69000244140625</v>
+      </c>
+      <c r="G2835" t="n">
+        <v>85.31340700714024</v>
+      </c>
+      <c r="H2835" t="n">
+        <v>83.09396267765237</v>
+      </c>
+      <c r="I2835" t="n">
+        <v>81.06895348890261</v>
+      </c>
+      <c r="J2835" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B2836" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C2836" t="n">
+        <v>88.72000122070312</v>
+      </c>
+      <c r="D2836" t="n">
+        <v>88.91999816894531</v>
+      </c>
+      <c r="E2836" t="n">
+        <v>86.36000061035156</v>
+      </c>
+      <c r="F2836" t="n">
+        <v>88.38999938964844</v>
+      </c>
+      <c r="G2836" t="n">
+        <v>86.19243340214258</v>
+      </c>
+      <c r="H2836" t="n">
+        <v>83.908737556421</v>
+      </c>
+      <c r="I2836" t="n">
+        <v>81.65463716096228</v>
+      </c>
+      <c r="J2836" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B2837" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>91.05000305175781</v>
+      </c>
+      <c r="E2837" t="n">
+        <v>86.91000366210938</v>
+      </c>
+      <c r="F2837" t="n">
+        <v>90.41000366210938</v>
+      </c>
+      <c r="G2837" t="n">
+        <v>87.3974534764188</v>
+      </c>
+      <c r="H2837" t="n">
+        <v>84.90893234191152</v>
+      </c>
+      <c r="I2837" t="n">
+        <v>82.35506648105405</v>
+      </c>
+      <c r="J2837" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B2838" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>90.79000091552734</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>94.55999755859375</v>
+      </c>
+      <c r="E2838" t="n">
+        <v>90.68000030517578</v>
+      </c>
+      <c r="F2838" t="n">
+        <v>93.55000305175781</v>
+      </c>
+      <c r="G2838" t="n">
+        <v>89.15532478365851</v>
+      </c>
+      <c r="H2838" t="n">
+        <v>86.23832783573403</v>
+      </c>
+      <c r="I2838" t="n">
+        <v>83.25066140671035</v>
+      </c>
+      <c r="J2838" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2839" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C2839" t="n">
+        <v>93.58999633789062</v>
+      </c>
+      <c r="D2839" t="n">
+        <v>94.91999816894531</v>
+      </c>
+      <c r="E2839" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2839" t="n">
+        <v>93.08000183105469</v>
+      </c>
+      <c r="G2839" t="n">
+        <v>90.27666108291456</v>
+      </c>
+      <c r="H2839" t="n">
+        <v>87.29089306578337</v>
+      </c>
+      <c r="I2839" t="n">
+        <v>84.0370086406579</v>
+      </c>
+      <c r="J2839" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B2840" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C2840" t="n">
+        <v>91.91000366210938</v>
+      </c>
+      <c r="D2840" t="n">
+        <v>92.62000274658203</v>
+      </c>
+      <c r="E2840" t="n">
+        <v>88.73999786376953</v>
+      </c>
+      <c r="F2840" t="n">
+        <v>89.91000366210938</v>
+      </c>
+      <c r="G2840" t="n">
+        <v>90.17190181982737</v>
+      </c>
+      <c r="H2840" t="n">
+        <v>87.69383315752583</v>
+      </c>
+      <c r="I2840" t="n">
+        <v>84.50684824237402</v>
+      </c>
+      <c r="J2840" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B2841" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C2841" t="n">
+        <v>90.16999816894531</v>
+      </c>
+      <c r="D2841" t="n">
+        <v>90.81999969482422</v>
+      </c>
+      <c r="E2841" t="n">
+        <v>86.70999908447266</v>
+      </c>
+      <c r="F2841" t="n">
+        <v>87.18000030517578</v>
+      </c>
+      <c r="G2841" t="n">
+        <v>89.3170728156412</v>
+      </c>
+      <c r="H2841" t="n">
+        <v>87.61478194947198</v>
+      </c>
+      <c r="I2841" t="n">
+        <v>84.72070040739816</v>
+      </c>
+      <c r="J2841" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B2842" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C2842" t="n">
+        <v>85.70999908447266</v>
+      </c>
+      <c r="D2842" t="n">
+        <v>86.51000213623047</v>
+      </c>
+      <c r="E2842" t="n">
+        <v>83.05000305175781</v>
+      </c>
+      <c r="F2842" t="n">
+        <v>84.62000274658203</v>
+      </c>
+      <c r="G2842" t="n">
+        <v>87.97505279591</v>
+      </c>
+      <c r="H2842" t="n">
+        <v>87.1540466874889</v>
+      </c>
+      <c r="I2842" t="n">
+        <v>84.71264459453286</v>
+      </c>
+      <c r="J2842" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B2843" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C2843" t="n">
+        <v>86.05000305175781</v>
+      </c>
+      <c r="D2843" t="n">
+        <v>93.79000091552734</v>
+      </c>
+      <c r="E2843" t="n">
+        <v>85.26999664306641</v>
+      </c>
+      <c r="F2843" t="n">
+        <v>93.12999725341797</v>
+      </c>
+      <c r="G2843" t="n">
+        <v>89.44789406948371</v>
+      </c>
+      <c r="H2843" t="n">
+        <v>88.07342369763184</v>
+      </c>
+      <c r="I2843" t="n">
+        <v>85.38603280724367</v>
+      </c>
+      <c r="J2843" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B2844" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C2844" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="D2844" t="n">
+        <v>95.72000122070312</v>
+      </c>
+      <c r="E2844" t="n">
+        <v>90.38999938964844</v>
+      </c>
+      <c r="F2844" t="n">
+        <v>92.41999816894531</v>
+      </c>
+      <c r="G2844" t="n">
+        <v>90.29706666932988</v>
+      </c>
+      <c r="H2844" t="n">
+        <v>88.74212746244929</v>
+      </c>
+      <c r="I2844" t="n">
+        <v>85.9487500361798</v>
+      </c>
+      <c r="J2844" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B2845" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C2845" t="n">
+        <v>92.44000244140625</v>
+      </c>
+      <c r="D2845" t="n">
+        <v>94.51000213623047</v>
+      </c>
+      <c r="E2845" t="n">
+        <v>90.52999877929688</v>
+      </c>
+      <c r="F2845" t="n">
+        <v>92.77999877929688</v>
+      </c>
+      <c r="G2845" t="n">
+        <v>91.00647584360617</v>
+      </c>
+      <c r="H2845" t="n">
+        <v>89.36333843427199</v>
+      </c>
+      <c r="I2845" t="n">
+        <v>86.49524993562918</v>
+      </c>
+      <c r="J2845" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B2846" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C2846" t="n">
+        <v>92.87999725341797</v>
+      </c>
+      <c r="D2846" t="n">
+        <v>95.34999847412109</v>
+      </c>
+      <c r="E2846" t="n">
+        <v>92.05999755859375</v>
+      </c>
+      <c r="F2846" t="n">
+        <v>94.95999908447266</v>
+      </c>
+      <c r="G2846" t="n">
+        <v>92.13605391242517</v>
+      </c>
+      <c r="H2846" t="n">
+        <v>90.22436314968748</v>
+      </c>
+      <c r="I2846" t="n">
+        <v>87.17242986753665</v>
+      </c>
+      <c r="J2846" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B2847" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C2847" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="D2847" t="n">
+        <v>95.09999847412109</v>
+      </c>
+      <c r="E2847" t="n">
+        <v>88.91000366210938</v>
+      </c>
+      <c r="F2847" t="n">
+        <v>90.11000061035156</v>
+      </c>
+      <c r="G2847" t="n">
+        <v>91.55718154040414</v>
+      </c>
+      <c r="H2847" t="n">
+        <v>90.20676891286656</v>
+      </c>
+      <c r="I2847" t="n">
+        <v>87.40743552696185</v>
+      </c>
+      <c r="J2847" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B2848" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C2848" t="n">
+        <v>90.19999694824219</v>
+      </c>
+      <c r="D2848" t="n">
+        <v>91.94999694824219</v>
+      </c>
+      <c r="E2848" t="n">
+        <v>87.41999816894531</v>
+      </c>
+      <c r="F2848" t="n">
+        <v>89.33999633789062</v>
+      </c>
+      <c r="G2848" t="n">
+        <v>90.92370005397171</v>
+      </c>
+      <c r="H2848" t="n">
+        <v>90.0734192859472</v>
+      </c>
+      <c r="I2848" t="n">
+        <v>87.56204039183615</v>
+      </c>
+      <c r="J2848" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B2849" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C2849" t="n">
+        <v>89.33999633789062</v>
+      </c>
+      <c r="D2849" t="n">
+        <v>90.01999664306641</v>
+      </c>
+      <c r="E2849" t="n">
+        <v>86.01999664306641</v>
+      </c>
+      <c r="F2849" t="n">
+        <v>87.41000366210938</v>
+      </c>
+      <c r="G2849" t="n">
+        <v>89.9197867991539</v>
+      </c>
+      <c r="H2849" t="n">
+        <v>89.663663036126</v>
+      </c>
+      <c r="I2849" t="n">
+        <v>87.54987745345801</v>
+      </c>
+      <c r="J2849" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B2850" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C2850" t="n">
+        <v>87.30000305175781</v>
+      </c>
+      <c r="D2850" t="n">
+        <v>91.02999877929688</v>
+      </c>
+      <c r="E2850" t="n">
+        <v>86.80999755859375</v>
+      </c>
+      <c r="F2850" t="n">
+        <v>91.01999664306641</v>
+      </c>
+      <c r="G2850" t="n">
+        <v>90.23413246884319</v>
+      </c>
+      <c r="H2850" t="n">
+        <v>89.87232974488606</v>
+      </c>
+      <c r="I2850" t="n">
+        <v>87.82748698862667</v>
+      </c>
+      <c r="J2850" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C2851" t="n">
+        <v>90.83000183105469</v>
+      </c>
+      <c r="D2851" t="n">
+        <v>93.01999664306641</v>
+      </c>
+      <c r="E2851" t="n">
+        <v>85.06999969482422</v>
+      </c>
+      <c r="F2851" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="G2851" t="n">
+        <v>77.76153790547123</v>
+      </c>
+      <c r="H2851" t="n">
+        <v>77.95791096558675</v>
+      </c>
+      <c r="I2851" t="n">
+        <v>77.95713822870677</v>
+      </c>
+      <c r="J2851" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2852" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C2852" t="n">
+        <v>77.01000213623047</v>
+      </c>
+      <c r="D2852" t="n">
+        <v>79.62999725341797</v>
+      </c>
+      <c r="E2852" t="n">
+        <v>76.08000183105469</v>
+      </c>
+      <c r="F2852" t="n">
+        <v>78.26000213623047</v>
+      </c>
+      <c r="G2852" t="n">
+        <v>77.76153790547123</v>
+      </c>
+      <c r="H2852" t="n">
+        <v>77.95791096558675</v>
+      </c>
+      <c r="I2852" t="n">
+        <v>77.95713822870677</v>
+      </c>
+      <c r="J2852" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2853" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C2853" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="D2853" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="E2853" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="F2853" t="n">
+        <v>79.11000061035156</v>
+      </c>
+      <c r="G2853" t="n">
+        <v>78.14681296400846</v>
+      </c>
+      <c r="H2853" t="n">
+        <v>78.13515552631979</v>
+      </c>
+      <c r="I2853" t="n">
+        <v>78.04936721923835</v>
+      </c>
+      <c r="J2853" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B2854" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C2854" t="n">
+        <v>79.66999816894531</v>
+      </c>
+      <c r="D2854" t="n">
+        <v>81.37999725341797</v>
+      </c>
+      <c r="E2854" t="n">
+        <v>78.76999664306641</v>
+      </c>
+      <c r="F2854" t="n">
+        <v>81.33999633789062</v>
+      </c>
+      <c r="G2854" t="n">
+        <v>79.05915107083193</v>
+      </c>
+      <c r="H2854" t="n">
+        <v>78.62820795886915</v>
+      </c>
+      <c r="I2854" t="n">
+        <v>78.31261754873053</v>
+      </c>
+      <c r="J2854" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2855" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C2855" t="n">
+        <v>81.37000274658203</v>
+      </c>
+      <c r="D2855" t="n">
+        <v>83.58000183105469</v>
+      </c>
+      <c r="E2855" t="n">
+        <v>80.73000335693359</v>
+      </c>
+      <c r="F2855" t="n">
+        <v>83.51999664306641</v>
+      </c>
+      <c r="G2855" t="n">
+        <v>80.33367837718464</v>
+      </c>
+      <c r="H2855" t="n">
+        <v>79.38079083336103</v>
+      </c>
+      <c r="I2855" t="n">
+        <v>78.7292078762774</v>
+      </c>
+      <c r="J2855" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B2856" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D2856" t="n">
+        <v>87.83999633789062</v>
+      </c>
+      <c r="E2856" t="n">
+        <v>82.73000335693359</v>
+      </c>
+      <c r="F2856" t="n">
+        <v>87.68000030517578</v>
+      </c>
+      <c r="G2856" t="n">
+        <v>82.43262749946783</v>
+      </c>
+      <c r="H2856" t="n">
+        <v>80.6575922905633</v>
+      </c>
+      <c r="I2856" t="n">
+        <v>79.44527127058927</v>
+      </c>
+      <c r="J2856" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2857" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>88.31999969482422</v>
+      </c>
+      <c r="D2857" t="n">
+        <v>89.48000335693359</v>
+      </c>
+      <c r="E2857" t="n">
+        <v>84.83000183105469</v>
+      </c>
+      <c r="F2857" t="n">
+        <v>86.91000366210938</v>
+      </c>
+      <c r="G2857" t="n">
+        <v>83.71187783165112</v>
+      </c>
+      <c r="H2857" t="n">
+        <v>81.61950173233961</v>
+      </c>
+      <c r="I2857" t="n">
+        <v>80.04244986191088</v>
+      </c>
+      <c r="J2857" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B2858" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C2858" t="n">
+        <v>86.41999816894531</v>
+      </c>
+      <c r="D2858" t="n">
+        <v>87.44999694824219</v>
+      </c>
+      <c r="E2858" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F2858" t="n">
+        <v>84.58999633789062</v>
+      </c>
+      <c r="G2858" t="n">
+        <v>83.96276883343384</v>
+      </c>
+      <c r="H2858" t="n">
+        <v>82.07650090242439</v>
+      </c>
+      <c r="I2858" t="n">
+        <v>80.40625357998925</v>
+      </c>
+      <c r="J2858" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B2859" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C2859" t="n">
+        <v>84.58999633789062</v>
+      </c>
+      <c r="D2859" t="n">
+        <v>90.01000213623047</v>
+      </c>
+      <c r="E2859" t="n">
+        <v>83.52999877929688</v>
+      </c>
+      <c r="F2859" t="n">
+        <v>88.69000244140625</v>
+      </c>
+      <c r="G2859" t="n">
+        <v>85.31340700714024</v>
+      </c>
+      <c r="H2859" t="n">
+        <v>83.09396267765237</v>
+      </c>
+      <c r="I2859" t="n">
+        <v>81.06895348890261</v>
+      </c>
+      <c r="J2859" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B2860" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C2860" t="n">
+        <v>88.72000122070312</v>
+      </c>
+      <c r="D2860" t="n">
+        <v>88.91999816894531</v>
+      </c>
+      <c r="E2860" t="n">
+        <v>86.36000061035156</v>
+      </c>
+      <c r="F2860" t="n">
+        <v>88.38999938964844</v>
+      </c>
+      <c r="G2860" t="n">
+        <v>86.19243340214258</v>
+      </c>
+      <c r="H2860" t="n">
+        <v>83.908737556421</v>
+      </c>
+      <c r="I2860" t="n">
+        <v>81.65463716096228</v>
+      </c>
+      <c r="J2860" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B2861" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C2861" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D2861" t="n">
+        <v>91.05000305175781</v>
+      </c>
+      <c r="E2861" t="n">
+        <v>86.91000366210938</v>
+      </c>
+      <c r="F2861" t="n">
+        <v>90.41000366210938</v>
+      </c>
+      <c r="G2861" t="n">
+        <v>87.3974534764188</v>
+      </c>
+      <c r="H2861" t="n">
+        <v>84.90893234191152</v>
+      </c>
+      <c r="I2861" t="n">
+        <v>82.35506648105405</v>
+      </c>
+      <c r="J2861" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B2862" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C2862" t="n">
+        <v>90.79000091552734</v>
+      </c>
+      <c r="D2862" t="n">
+        <v>94.55999755859375</v>
+      </c>
+      <c r="E2862" t="n">
+        <v>90.68000030517578</v>
+      </c>
+      <c r="F2862" t="n">
+        <v>93.55000305175781</v>
+      </c>
+      <c r="G2862" t="n">
+        <v>89.15532478365851</v>
+      </c>
+      <c r="H2862" t="n">
+        <v>86.23832783573403</v>
+      </c>
+      <c r="I2862" t="n">
+        <v>83.25066140671035</v>
+      </c>
+      <c r="J2862" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2863" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C2863" t="n">
+        <v>93.58999633789062</v>
+      </c>
+      <c r="D2863" t="n">
+        <v>94.91999816894531</v>
+      </c>
+      <c r="E2863" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2863" t="n">
+        <v>93.08000183105469</v>
+      </c>
+      <c r="G2863" t="n">
+        <v>90.27666108291456</v>
+      </c>
+      <c r="H2863" t="n">
+        <v>87.29089306578337</v>
+      </c>
+      <c r="I2863" t="n">
+        <v>84.0370086406579</v>
+      </c>
+      <c r="J2863" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B2864" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C2864" t="n">
+        <v>91.91000366210938</v>
+      </c>
+      <c r="D2864" t="n">
+        <v>92.62000274658203</v>
+      </c>
+      <c r="E2864" t="n">
+        <v>88.73999786376953</v>
+      </c>
+      <c r="F2864" t="n">
+        <v>89.91000366210938</v>
+      </c>
+      <c r="G2864" t="n">
+        <v>90.17190181982737</v>
+      </c>
+      <c r="H2864" t="n">
+        <v>87.69383315752583</v>
+      </c>
+      <c r="I2864" t="n">
+        <v>84.50684824237402</v>
+      </c>
+      <c r="J2864" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B2865" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C2865" t="n">
+        <v>90.16999816894531</v>
+      </c>
+      <c r="D2865" t="n">
+        <v>90.81999969482422</v>
+      </c>
+      <c r="E2865" t="n">
+        <v>86.70999908447266</v>
+      </c>
+      <c r="F2865" t="n">
+        <v>87.18000030517578</v>
+      </c>
+      <c r="G2865" t="n">
+        <v>89.3170728156412</v>
+      </c>
+      <c r="H2865" t="n">
+        <v>87.61478194947198</v>
+      </c>
+      <c r="I2865" t="n">
+        <v>84.72070040739816</v>
+      </c>
+      <c r="J2865" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B2866" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C2866" t="n">
+        <v>85.70999908447266</v>
+      </c>
+      <c r="D2866" t="n">
+        <v>86.51000213623047</v>
+      </c>
+      <c r="E2866" t="n">
+        <v>83.05000305175781</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>84.62000274658203</v>
+      </c>
+      <c r="G2866" t="n">
+        <v>87.97505279591</v>
+      </c>
+      <c r="H2866" t="n">
+        <v>87.1540466874889</v>
+      </c>
+      <c r="I2866" t="n">
+        <v>84.71264459453286</v>
+      </c>
+      <c r="J2866" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B2867" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C2867" t="n">
+        <v>86.05000305175781</v>
+      </c>
+      <c r="D2867" t="n">
+        <v>93.79000091552734</v>
+      </c>
+      <c r="E2867" t="n">
+        <v>85.26999664306641</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>93.12999725341797</v>
+      </c>
+      <c r="G2867" t="n">
+        <v>89.44789406948371</v>
+      </c>
+      <c r="H2867" t="n">
+        <v>88.07342369763184</v>
+      </c>
+      <c r="I2867" t="n">
+        <v>85.38603280724367</v>
+      </c>
+      <c r="J2867" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B2868" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C2868" t="n">
+        <v>93.19999694824219</v>
+      </c>
+      <c r="D2868" t="n">
+        <v>95.72000122070312</v>
+      </c>
+      <c r="E2868" t="n">
+        <v>90.38999938964844</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>92.41999816894531</v>
+      </c>
+      <c r="G2868" t="n">
+        <v>90.29706666932988</v>
+      </c>
+      <c r="H2868" t="n">
+        <v>88.74212746244929</v>
+      </c>
+      <c r="I2868" t="n">
+        <v>85.9487500361798</v>
+      </c>
+      <c r="J2868" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B2869" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C2869" t="n">
+        <v>92.44000244140625</v>
+      </c>
+      <c r="D2869" t="n">
+        <v>94.51000213623047</v>
+      </c>
+      <c r="E2869" t="n">
+        <v>90.52999877929688</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>92.77999877929688</v>
+      </c>
+      <c r="G2869" t="n">
+        <v>91.00647584360617</v>
+      </c>
+      <c r="H2869" t="n">
+        <v>89.36333843427199</v>
+      </c>
+      <c r="I2869" t="n">
+        <v>86.49524993562918</v>
+      </c>
+      <c r="J2869" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B2870" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C2870" t="n">
+        <v>92.87999725341797</v>
+      </c>
+      <c r="D2870" t="n">
+        <v>95.34999847412109</v>
+      </c>
+      <c r="E2870" t="n">
+        <v>92.05999755859375</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>94.95999908447266</v>
+      </c>
+      <c r="G2870" t="n">
+        <v>92.13605391242517</v>
+      </c>
+      <c r="H2870" t="n">
+        <v>90.22436314968748</v>
+      </c>
+      <c r="I2870" t="n">
+        <v>87.17242986753665</v>
+      </c>
+      <c r="J2870" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B2871" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C2871" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="D2871" t="n">
+        <v>95.09999847412109</v>
+      </c>
+      <c r="E2871" t="n">
+        <v>88.91000366210938</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>90.11000061035156</v>
+      </c>
+      <c r="G2871" t="n">
+        <v>91.55718154040414</v>
+      </c>
+      <c r="H2871" t="n">
+        <v>90.20676891286656</v>
+      </c>
+      <c r="I2871" t="n">
+        <v>87.40743552696185</v>
+      </c>
+      <c r="J2871" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B2872" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>90.19999694824219</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>91.94999694824219</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>87.41999816894531</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>89.33999633789062</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>90.92370005397171</v>
+      </c>
+      <c r="H2872" t="n">
+        <v>90.0734192859472</v>
+      </c>
+      <c r="I2872" t="n">
+        <v>87.56204039183615</v>
+      </c>
+      <c r="J2872" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B2873" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C2873" t="n">
+        <v>89.33999633789062</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>90.01999664306641</v>
+      </c>
+      <c r="E2873" t="n">
+        <v>86.01999664306641</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>87.41000366210938</v>
+      </c>
+      <c r="G2873" t="n">
+        <v>89.9197867991539</v>
+      </c>
+      <c r="H2873" t="n">
+        <v>89.663663036126</v>
+      </c>
+      <c r="I2873" t="n">
+        <v>87.54987745345801</v>
+      </c>
+      <c r="J2873" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B2874" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C2874" t="n">
+        <v>87.30000305175781</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>91.02999877929688</v>
+      </c>
+      <c r="E2874" t="n">
+        <v>86.80999755859375</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>91.01999664306641</v>
+      </c>
+      <c r="G2874" t="n">
+        <v>90.23413246884319</v>
+      </c>
+      <c r="H2874" t="n">
+        <v>89.87232974488606</v>
+      </c>
+      <c r="I2874" t="n">
+        <v>87.82748698862667</v>
+      </c>
+      <c r="J2874" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B2875" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="C2875" t="n">
+        <v>90.83000183105469</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>93.01999664306641</v>
+      </c>
+      <c r="E2875" t="n">
+        <v>89.87000274658203</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>92.08000183105469</v>
+      </c>
+      <c r="G2875" t="n">
+        <v>90.76152371518933</v>
+      </c>
+      <c r="H2875" t="n">
+        <v>90.21197160429662</v>
+      </c>
+      <c r="I2875" t="n">
+        <v>88.16768817602092</v>
+      </c>
+      <c r="J2875" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C2876" t="n">
+        <v>91.80999755859375</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>92.22000122070312</v>
+      </c>
+      <c r="E2876" t="n">
+        <v>85.06999969482422</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="G2876" t="n">
+        <v>90.76152371518933</v>
+      </c>
+      <c r="H2876" t="n">
+        <v>90.21197160429662</v>
+      </c>
+      <c r="I2876" t="n">
+        <v>88.16768817602092</v>
+      </c>
+      <c r="J2876" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
